--- a/biology/Microbiologie/Octave_Gengou/Octave_Gengou.xlsx
+++ b/biology/Microbiologie/Octave_Gengou/Octave_Gengou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Octave Gengou (né le 27 février 1875 à Ouffet et décédé le 25 avril 1957 à Bruxelles) était un bactériologiste belge. Il a étudié avec Jules Bordet la bactérie Bordetella pertussis.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Âgé de 22 ans, il obtient son doctorat à l'Université de Liège, puis est nommé directeur adjoint de l'Institut Pasteur du Brabant. En 1945, il devient professeur émérite à l'Université de Bruxelles[1].
-Octave Gengou a travaillé à l'Institut Pasteur belge à Bruxelles. Avec Jules Bordet, il isole Bordetella pertussis en culture pure en 1906 et la déclare comme cause de la coqueluche[2]. En 1912, il participa à développer le premier vaccin contre la coqueluche. Il a également travaillé sur diverses recherches fondamentales importantes sur un test désormais courant pour les maladies (par exemple le « test Wassermann » d'August von Wassermann).
-Il fut secrétaire général de l'Œuvre nationale belge contre la tuberculose et président honoraire de la Ligue nationale belge contre la tuberculose[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Âgé de 22 ans, il obtient son doctorat à l'Université de Liège, puis est nommé directeur adjoint de l'Institut Pasteur du Brabant. En 1945, il devient professeur émérite à l'Université de Bruxelles.
+Octave Gengou a travaillé à l'Institut Pasteur belge à Bruxelles. Avec Jules Bordet, il isole Bordetella pertussis en culture pure en 1906 et la déclare comme cause de la coqueluche. En 1912, il participa à développer le premier vaccin contre la coqueluche. Il a également travaillé sur diverses recherches fondamentales importantes sur un test désormais courant pour les maladies (par exemple le « test Wassermann » d'August von Wassermann).
+Il fut secrétaire général de l'Œuvre nationale belge contre la tuberculose et président honoraire de la Ligue nationale belge contre la tuberculose.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Œuvres publiées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Avec Jules Bordet, il collabore aux ouvrages suivants :
 Contribution à l'étude de la coagulation du sang, 1903 – Contribution à l'étude de la coagulation sanguine.
@@ -553,7 +569,7 @@
 L'Endotoxine coquelucheuse, 1909 – L'endotoxine coquelucheuse.
 Étiologie de la coqueluche. État actuel de la question , 1909 – Étiologie de la coqueluche. État actuel de la question.
 La Coagglutination des globules rouges par les mélanges des anticorps et des antigènes albumineux, 1911 – Coagglutination des globules rouges par des mélanges d'anticorps albumines et d'antigènes.
-Le Diagnostic de la coqueluche fruste par la méthode de la fixation d'alexine, 1911[3].</t>
+Le Diagnostic de la coqueluche fruste par la méthode de la fixation d'alexine, 1911.</t>
         </is>
       </c>
     </row>
